--- a/DouYinScraper/douyin_videos.xlsx
+++ b/DouYinScraper/douyin_videos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4770,43 +4770,47 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr"/>
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>讲真话不易 且行且珍惜 绝大部分的散户投资者都没有受过专业的股票知识教育就贸然进入到市场中，如何保护他们？#李大霄 #为老百姓发声#做好人买好股得好报 #作品同步头条赢激励#大有学问</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>李大霄</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="D115" t="n">
-        <v>2441</v>
+        <v>458</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://v3-web.douyinvod.com/54f1e410e028c4aba02574196acd1f5b/68a0aaf3/video/tos/cn/tos-cn-ve-0015c800/oAgMfAfRj0gmQIIbXfLeCEAKHKkogyQS2GGcDv/?a=6383&amp;ch=10010&amp;cr=3&amp;dr=0&amp;lr=all&amp;cd=0%7C0%7C0%7C3&amp;cv=1&amp;br=329&amp;bt=329&amp;cs=0&amp;ds=4&amp;ft=4TMWc6DhppftTzL8Es~.C_fauVq0In45ftGc6BtW_11NRhsHDDcB.8KOR~TqousZ.&amp;mime_type=video_mp4&amp;qs=0&amp;rc=ZDU7ZDo5NzQ4OGY6OjM6ZUBpajZqZHE5cjhrdTMzNGkzM0BgYF9gX2NjXzAxY2MuNTEyYSNwcy0vMmRzbHNgLS1kLWFzcw%3D%3D&amp;btag=c0000e00028000&amp;cquery=100z_100o_101r_100N_100x&amp;dy_q=1755349105&amp;feature_id=46a7bb47b4fd1280f3d3825bf2b29388&amp;l=20250816205824E14EF62C31674E418F2A</t>
+          <t>https://v3-web.douyinvod.com/27dae4fe789b02980f2f017d41bd4f6e/68a0abd6/video/tos/cn/tos-cn-ve-15/ogMHgII24QKfDfNCIibAleGaLPegAEH2dIIADL/?a=6383&amp;ch=10010&amp;cr=3&amp;dr=0&amp;lr=all&amp;cd=0%7C0%7C0%7C3&amp;cv=1&amp;br=716&amp;bt=716&amp;cs=0&amp;ds=4&amp;ft=4TMWc6DhppftTzL8Es~.C_fauVq0In45ftGc6BtW_11NRhsHDDcB.8KOR~TqousZ.&amp;mime_type=video_mp4&amp;qs=0&amp;rc=NTVpM2Y6aWllOmRoN2k2NkBpM3Z4O3A5cms5NTMzNGkzM0BjMy8yNGEvXi0xLS4zL19eYSMvNG9lMmRzc2RhLS1kLTBzcw%3D%3D&amp;btag=c0000e00030000&amp;cquery=100o_101r_100B_100x_100z&amp;dy_q=1755349105&amp;feature_id=46a7bb47b4fd1280f3d3825bf2b29388&amp;l=20250816205824E14EF62C31674E418F2A</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>https://www.iesdouyin.com/share/video/7421681469690531084/?region=CN&amp;mid=7413306911125015306&amp;u_code=1gc4icjicghg&amp;did=MS4wLjABAAAAKx1hV3QZSLMrp1cHtvpEiPR5vaBZXyDV_RoOJeM83hCgv_kp_X7UJjKG2o8t6GY5&amp;iid=MS4wLjABAAAANwkJuWIRFOzg5uCpDRpMj4OX-QryoDgn-yYlXQnRwQQ&amp;with_sec_did=1&amp;video_share_track_ver=&amp;titleType=&amp;share_sign=M8oBJrNFXQg1s8Z7BZYeJKdUGKFPkVeEdgYDlkttHKo-&amp;share_version=290100&amp;ts=1755349105&amp;from_aid=6383&amp;from_ssr=1</t>
+          <t>https://www.iesdouyin.com/share/video/7539149255816154406/?region=CN&amp;mid=6620583416695884548&amp;u_code=1gc4icjicghg&amp;did=MS4wLjABAAAAKx1hV3QZSLMrp1cHtvpEiPR5vaBZXyDV_RoOJeM83hCgv_kp_X7UJjKG2o8t6GY5&amp;iid=MS4wLjABAAAANwkJuWIRFOzg5uCpDRpMj4OX-QryoDgn-yYlXQnRwQQ&amp;with_sec_did=1&amp;video_share_track_ver=&amp;titleType=title&amp;share_sign=1APY5jGBoxAugDaGitYn0W3VeaZypERASad2ZcoYnKM-&amp;share_version=290100&amp;ts=1755349105&amp;from_aid=6383&amp;from_ssr=1</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o0k24fQfhqlFnf0BDAgvH7AQM8AkWCDPeESbjg~tplv-dy-cropcenter:323:430.jpeg?lk3s=138a59ce&amp;x-expires=2070705600&amp;x-signature=x%2B6ly872p3GOmminyQchAnwv8mg%3D&amp;from=327834062&amp;s=PackSourceEnum_PUBLISH&amp;se=true&amp;sh=323_430&amp;sc=cover&amp;biz_tag=pcweb_cover&amp;l=20250816205824E14EF62C31674E418F2A</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/ocAAuScAwiIFCKngUaBGIgvwpPxKABDoAixEM~tplv-dy-cropcenter:323:430.jpeg?lk3s=138a59ce&amp;x-expires=2070705600&amp;x-signature=sIFNy4EXmbgDHShwBhLrx70My84%3D&amp;from=327834062&amp;s=PackSourceEnum_PUBLISH&amp;se=true&amp;sh=323_430&amp;sc=cover&amp;biz_tag=pcweb_cover&amp;l=20250816205824E14EF62C31674E418F2A</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2024-10-04 06:35:06</t>
+          <t>2025-08-16 19:49:39</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>讲真话不易 且行且珍惜 绝大部分的散户投资者都没有受过专业的股票知识教育就贸然进入到市场中，如何保护他们？#李大霄 #为老百姓发声#做好人买好股得好报 #作品同步头条赢激励#大有学问</t>
+          <t>寒冬送温暖 盛夏送清凉 如何能够做到在3700点保持客观理性？#李大霄 #为老百姓发声#做好人买好股得好报 #作品同步头条赢激励#大有学问</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4815,36 +4819,36 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>85</v>
+        <v>326</v>
       </c>
       <c r="D116" t="n">
-        <v>458</v>
+        <v>1339</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://v3-web.douyinvod.com/27dae4fe789b02980f2f017d41bd4f6e/68a0abd6/video/tos/cn/tos-cn-ve-15/ogMHgII24QKfDfNCIibAleGaLPegAEH2dIIADL/?a=6383&amp;ch=10010&amp;cr=3&amp;dr=0&amp;lr=all&amp;cd=0%7C0%7C0%7C3&amp;cv=1&amp;br=716&amp;bt=716&amp;cs=0&amp;ds=4&amp;ft=4TMWc6DhppftTzL8Es~.C_fauVq0In45ftGc6BtW_11NRhsHDDcB.8KOR~TqousZ.&amp;mime_type=video_mp4&amp;qs=0&amp;rc=NTVpM2Y6aWllOmRoN2k2NkBpM3Z4O3A5cms5NTMzNGkzM0BjMy8yNGEvXi0xLS4zL19eYSMvNG9lMmRzc2RhLS1kLTBzcw%3D%3D&amp;btag=c0000e00030000&amp;cquery=100o_101r_100B_100x_100z&amp;dy_q=1755349105&amp;feature_id=46a7bb47b4fd1280f3d3825bf2b29388&amp;l=20250816205824E14EF62C31674E418F2A</t>
+          <t>https://v3-web.douyinvod.com/7e51fe25eda82b174fa21f28d29857d6/68a0abdf/video/tos/cn/tos-cn-ve-15c000-ce/oQhGIJAL4QAr17hguABQYvIL9eeDGekC85FRJA/?a=6383&amp;ch=10010&amp;cr=3&amp;dr=0&amp;lr=all&amp;cd=0%7C0%7C0%7C3&amp;cv=1&amp;br=899&amp;bt=899&amp;cs=0&amp;ds=6&amp;ft=4TMWc6DhppftTzL8Es~.C_fauVq0In45ftGc6BtW_11NRhsHDDcB.8KOR~TqousZ.&amp;mime_type=video_mp4&amp;qs=0&amp;rc=Omc6NDk5O2k1ZjQ6O2VlNEBpajk0cnQ5cnI4NTMzbGkzNEAwNjItYzJgXjQxMF4zNDIzYSM0cGdxMmRjb2RhLS1kLWJzcw%3D%3D&amp;btag=c0000e00030000&amp;cquery=101r_100B_100x_100z_100o&amp;dy_q=1755349105&amp;feature_id=f0150a16a324336cda5d6dd0b69ed299&amp;l=20250816205824E14EF62C31674E418F2A</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>https://www.iesdouyin.com/share/video/7539149255816154406/?region=CN&amp;mid=6620583416695884548&amp;u_code=1gc4icjicghg&amp;did=MS4wLjABAAAAKx1hV3QZSLMrp1cHtvpEiPR5vaBZXyDV_RoOJeM83hCgv_kp_X7UJjKG2o8t6GY5&amp;iid=MS4wLjABAAAANwkJuWIRFOzg5uCpDRpMj4OX-QryoDgn-yYlXQnRwQQ&amp;with_sec_did=1&amp;video_share_track_ver=&amp;titleType=title&amp;share_sign=1APY5jGBoxAugDaGitYn0W3VeaZypERASad2ZcoYnKM-&amp;share_version=290100&amp;ts=1755349105&amp;from_aid=6383&amp;from_ssr=1</t>
+          <t>https://www.iesdouyin.com/share/video/7539130425282334012/?region=CN&amp;mid=7539130385629334315&amp;u_code=1gc4icjicghg&amp;did=MS4wLjABAAAAKx1hV3QZSLMrp1cHtvpEiPR5vaBZXyDV_RoOJeM83hCgv_kp_X7UJjKG2o8t6GY5&amp;iid=MS4wLjABAAAANwkJuWIRFOzg5uCpDRpMj4OX-QryoDgn-yYlXQnRwQQ&amp;with_sec_did=1&amp;video_share_track_ver=&amp;titleType=title&amp;share_sign=WoIQKX.3EvBLI.vBtd3mEigB6ZDce5ZsAXNPgHypfFc-&amp;share_version=290100&amp;ts=1755349105&amp;from_aid=6383&amp;from_ssr=1</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/ocAAuScAwiIFCKngUaBGIgvwpPxKABDoAixEM~tplv-dy-cropcenter:323:430.jpeg?lk3s=138a59ce&amp;x-expires=2070705600&amp;x-signature=sIFNy4EXmbgDHShwBhLrx70My84%3D&amp;from=327834062&amp;s=PackSourceEnum_PUBLISH&amp;se=true&amp;sh=323_430&amp;sc=cover&amp;biz_tag=pcweb_cover&amp;l=20250816205824E14EF62C31674E418F2A</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c000-ce/ogCoeEuIDJW8FEXtwEfyA6AAkFVOAoEANwe97g~tplv-dy-cropcenter:323:430.jpeg?lk3s=138a59ce&amp;x-expires=2070705600&amp;x-signature=Ued2hIkL466wy9QbOqjJAHWI0no%3D&amp;from=327834062&amp;s=PackSourceEnum_PUBLISH&amp;se=true&amp;sh=323_430&amp;sc=cover&amp;biz_tag=pcweb_cover&amp;l=20250816205824E14EF62C31674E418F2A</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2025-08-16 19:49:39</t>
+          <t>2025-08-16 18:36:31</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>寒冬送温暖 盛夏送清凉 如何能够做到在3700点保持客观理性？#李大霄 #为老百姓发声#做好人买好股得好报 #作品同步头条赢激励#大有学问</t>
+          <t>找好人买好股 为什么ETF成了本轮牛市的主战场？#李大霄 #为老百姓发声#做好人买好股得好报 #作品同步头条赢激励#大有学问</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4853,36 +4857,36 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>326</v>
+        <v>452</v>
       </c>
       <c r="D117" t="n">
-        <v>1339</v>
+        <v>3082</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://v3-web.douyinvod.com/7e51fe25eda82b174fa21f28d29857d6/68a0abdf/video/tos/cn/tos-cn-ve-15c000-ce/oQhGIJAL4QAr17hguABQYvIL9eeDGekC85FRJA/?a=6383&amp;ch=10010&amp;cr=3&amp;dr=0&amp;lr=all&amp;cd=0%7C0%7C0%7C3&amp;cv=1&amp;br=899&amp;bt=899&amp;cs=0&amp;ds=6&amp;ft=4TMWc6DhppftTzL8Es~.C_fauVq0In45ftGc6BtW_11NRhsHDDcB.8KOR~TqousZ.&amp;mime_type=video_mp4&amp;qs=0&amp;rc=Omc6NDk5O2k1ZjQ6O2VlNEBpajk0cnQ5cnI4NTMzbGkzNEAwNjItYzJgXjQxMF4zNDIzYSM0cGdxMmRjb2RhLS1kLWJzcw%3D%3D&amp;btag=c0000e00030000&amp;cquery=101r_100B_100x_100z_100o&amp;dy_q=1755349105&amp;feature_id=f0150a16a324336cda5d6dd0b69ed299&amp;l=20250816205824E14EF62C31674E418F2A</t>
+          <t>https://v3-web.douyinvod.com/f0baa1c0640c98e80b0fc241fa264e3a/68a0ac6f/video/tos/cn/tos-cn-ve-15/oUIvgRoBFCCgmA7fQeEAOLIBtFGH2QQEoeVv9G/?a=6383&amp;ch=10010&amp;cr=3&amp;dr=0&amp;lr=all&amp;cd=0%7C0%7C0%7C3&amp;cv=1&amp;br=579&amp;bt=579&amp;cs=0&amp;ds=3&amp;ft=4TMWc6DhppftTzL8Es~.C_fauVq0In45ftGc6BtW_11NRhsHDDcB.8KOR~TqousZ.&amp;mime_type=video_mp4&amp;qs=0&amp;rc=NDY6Z2lkODQ0aTc0ZTY0OUBpanB0Nm45cmc0NTMzNGkzM0AuXjUyLjYxXzIxNGNfMmEuYSNeZXMyMmRzX2RhLS1kLTBzcw%3D%3D&amp;btag=c0000e00030000&amp;cquery=100x_100z_100o_101r_100B&amp;dy_q=1755349105&amp;feature_id=fea919893f650a8c49286568590446ef&amp;l=20250816205824E14EF62C31674E418F2A</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>https://www.iesdouyin.com/share/video/7539130425282334012/?region=CN&amp;mid=7539130385629334315&amp;u_code=1gc4icjicghg&amp;did=MS4wLjABAAAAKx1hV3QZSLMrp1cHtvpEiPR5vaBZXyDV_RoOJeM83hCgv_kp_X7UJjKG2o8t6GY5&amp;iid=MS4wLjABAAAANwkJuWIRFOzg5uCpDRpMj4OX-QryoDgn-yYlXQnRwQQ&amp;with_sec_did=1&amp;video_share_track_ver=&amp;titleType=title&amp;share_sign=WoIQKX.3EvBLI.vBtd3mEigB6ZDce5ZsAXNPgHypfFc-&amp;share_version=290100&amp;ts=1755349105&amp;from_aid=6383&amp;from_ssr=1</t>
+          <t>https://www.iesdouyin.com/share/video/7539050568507034930/?region=CN&amp;mid=7539050649032329994&amp;u_code=1gc4icjicghg&amp;did=MS4wLjABAAAAKx1hV3QZSLMrp1cHtvpEiPR5vaBZXyDV_RoOJeM83hCgv_kp_X7UJjKG2o8t6GY5&amp;iid=MS4wLjABAAAANwkJuWIRFOzg5uCpDRpMj4OX-QryoDgn-yYlXQnRwQQ&amp;with_sec_did=1&amp;video_share_track_ver=&amp;titleType=title&amp;share_sign=TG4.ZWi2xEpm5c6auzo9_eg3BeqhNWk.hI17G0Og264-&amp;share_version=290100&amp;ts=1755349105&amp;from_aid=6383&amp;from_ssr=1</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c000-ce/ogCoeEuIDJW8FEXtwEfyA6AAkFVOAoEANwe97g~tplv-dy-cropcenter:323:430.jpeg?lk3s=138a59ce&amp;x-expires=2070705600&amp;x-signature=Ued2hIkL466wy9QbOqjJAHWI0no%3D&amp;from=327834062&amp;s=PackSourceEnum_PUBLISH&amp;se=true&amp;sh=323_430&amp;sc=cover&amp;biz_tag=pcweb_cover&amp;l=20250816205824E14EF62C31674E418F2A</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/osIXiAaFB9A3WigwKogKPAiIACjvFpUEAAC5w~tplv-dy-cropcenter:323:430.jpeg?lk3s=138a59ce&amp;x-expires=2070705600&amp;x-signature=nsR%2FlIYf%2BqlsRZW55TzQPzNADiE%3D&amp;from=327834062&amp;s=PackSourceEnum_PUBLISH&amp;se=true&amp;sh=323_430&amp;sc=cover&amp;biz_tag=pcweb_cover&amp;l=20250816205824E14EF62C31674E418F2A</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2025-08-16 18:36:31</t>
+          <t>2025-08-16 13:26:39</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>找好人买好股 为什么ETF成了本轮牛市的主战场？#李大霄 #为老百姓发声#做好人买好股得好报 #作品同步头条赢激励#大有学问</t>
+          <t>怎么看待3700？ 居民存款“搬家”释放什么重要信号？#李大霄 #为老百姓发声#做好人买好股得好报 #作品同步头条赢激励#大有学问</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4891,36 +4895,36 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>452</v>
+        <v>1064</v>
       </c>
       <c r="D118" t="n">
-        <v>3082</v>
+        <v>6282</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://v3-web.douyinvod.com/f0baa1c0640c98e80b0fc241fa264e3a/68a0ac6f/video/tos/cn/tos-cn-ve-15/oUIvgRoBFCCgmA7fQeEAOLIBtFGH2QQEoeVv9G/?a=6383&amp;ch=10010&amp;cr=3&amp;dr=0&amp;lr=all&amp;cd=0%7C0%7C0%7C3&amp;cv=1&amp;br=579&amp;bt=579&amp;cs=0&amp;ds=3&amp;ft=4TMWc6DhppftTzL8Es~.C_fauVq0In45ftGc6BtW_11NRhsHDDcB.8KOR~TqousZ.&amp;mime_type=video_mp4&amp;qs=0&amp;rc=NDY6Z2lkODQ0aTc0ZTY0OUBpanB0Nm45cmc0NTMzNGkzM0AuXjUyLjYxXzIxNGNfMmEuYSNeZXMyMmRzX2RhLS1kLTBzcw%3D%3D&amp;btag=c0000e00030000&amp;cquery=100x_100z_100o_101r_100B&amp;dy_q=1755349105&amp;feature_id=fea919893f650a8c49286568590446ef&amp;l=20250816205824E14EF62C31674E418F2A</t>
+          <t>https://v3-web.douyinvod.com/a6f17232e18b575721895320e2b6d74f/68a0ac70/video/tos/cn/tos-cn-ve-15c000-ce/oUfbfgOAJgCESmghqtDZ8RIsPQ5U797SfFEBUN/?a=6383&amp;ch=10010&amp;cr=3&amp;dr=0&amp;lr=all&amp;cd=0%7C0%7C0%7C3&amp;cv=1&amp;br=506&amp;bt=506&amp;cs=0&amp;ds=3&amp;ft=4TMWc6DhppftTzL8Es~.C_fauVq0In45ftGc6BtW_11NRhsHDDcB.8KOR~TqousZ.&amp;mime_type=video_mp4&amp;qs=0&amp;rc=OzlmODw2OGQ1NWdkZDs2Z0BpM2ZxPG85cjZ5NTMzbGkzNEA0YTReNTMxX2MxNV9gMzUyYSNlM2k1MmRrXmNhLS1kLWJzcw%3D%3D&amp;btag=c0000e00030000&amp;cquery=101r_100B_100x_100z_100o&amp;dy_q=1755349105&amp;feature_id=fea919893f650a8c49286568590446ef&amp;l=20250816205824E14EF62C31674E418F2A</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>https://www.iesdouyin.com/share/video/7539050568507034930/?region=CN&amp;mid=7539050649032329994&amp;u_code=1gc4icjicghg&amp;did=MS4wLjABAAAAKx1hV3QZSLMrp1cHtvpEiPR5vaBZXyDV_RoOJeM83hCgv_kp_X7UJjKG2o8t6GY5&amp;iid=MS4wLjABAAAANwkJuWIRFOzg5uCpDRpMj4OX-QryoDgn-yYlXQnRwQQ&amp;with_sec_did=1&amp;video_share_track_ver=&amp;titleType=title&amp;share_sign=TG4.ZWi2xEpm5c6auzo9_eg3BeqhNWk.hI17G0Og264-&amp;share_version=290100&amp;ts=1755349105&amp;from_aid=6383&amp;from_ssr=1</t>
+          <t>https://www.iesdouyin.com/share/video/7539015029640514876/?region=CN&amp;mid=7539015042369391398&amp;u_code=1gc4icjicghg&amp;did=MS4wLjABAAAAKx1hV3QZSLMrp1cHtvpEiPR5vaBZXyDV_RoOJeM83hCgv_kp_X7UJjKG2o8t6GY5&amp;iid=MS4wLjABAAAANwkJuWIRFOzg5uCpDRpMj4OX-QryoDgn-yYlXQnRwQQ&amp;with_sec_did=1&amp;video_share_track_ver=&amp;titleType=title&amp;share_sign=01AYTsnc2M6GZ2WSh3ZOyjn9UIJM5wUsTqjHWfVOBfM-&amp;share_version=290100&amp;ts=1755349105&amp;from_aid=6383&amp;from_ssr=1</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/osIXiAaFB9A3WigwKogKPAiIACjvFpUEAAC5w~tplv-dy-cropcenter:323:430.jpeg?lk3s=138a59ce&amp;x-expires=2070705600&amp;x-signature=nsR%2FlIYf%2BqlsRZW55TzQPzNADiE%3D&amp;from=327834062&amp;s=PackSourceEnum_PUBLISH&amp;se=true&amp;sh=323_430&amp;sc=cover&amp;biz_tag=pcweb_cover&amp;l=20250816205824E14EF62C31674E418F2A</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c000-ce/o4RPE559QAfOErzBI7AfyJAdA7Fju8f81gVDYE~tplv-dy-cropcenter:323:430.jpeg?lk3s=138a59ce&amp;x-expires=2070705600&amp;x-signature=y2d280wcZMJ%2BJkdArF%2BrnFLaG7s%3D&amp;from=327834062&amp;s=PackSourceEnum_PUBLISH&amp;se=true&amp;sh=323_430&amp;sc=cover&amp;biz_tag=pcweb_cover&amp;l=20250816205824E14EF62C31674E418F2A</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2025-08-16 13:26:39</t>
+          <t>2025-08-16 11:08:44</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>怎么看待3700？ 居民存款“搬家”释放什么重要信号？#李大霄 #为老百姓发声#做好人买好股得好报 #作品同步头条赢激励#大有学问</t>
+          <t>2025-08-17 20:11:42</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4929,29 +4933,181 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>1064</v>
+        <v>162</v>
       </c>
       <c r="D119" t="n">
-        <v>6282</v>
+        <v>2442</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://v3-web.douyinvod.com/a6f17232e18b575721895320e2b6d74f/68a0ac70/video/tos/cn/tos-cn-ve-15c000-ce/oUfbfgOAJgCESmghqtDZ8RIsPQ5U797SfFEBUN/?a=6383&amp;ch=10010&amp;cr=3&amp;dr=0&amp;lr=all&amp;cd=0%7C0%7C0%7C3&amp;cv=1&amp;br=506&amp;bt=506&amp;cs=0&amp;ds=3&amp;ft=4TMWc6DhppftTzL8Es~.C_fauVq0In45ftGc6BtW_11NRhsHDDcB.8KOR~TqousZ.&amp;mime_type=video_mp4&amp;qs=0&amp;rc=OzlmODw2OGQ1NWdkZDs2Z0BpM2ZxPG85cjZ5NTMzbGkzNEA0YTReNTMxX2MxNV9gMzUyYSNlM2k1MmRrXmNhLS1kLWJzcw%3D%3D&amp;btag=c0000e00030000&amp;cquery=101r_100B_100x_100z_100o&amp;dy_q=1755349105&amp;feature_id=fea919893f650a8c49286568590446ef&amp;l=20250816205824E14EF62C31674E418F2A</t>
+          <t>https://v3-web.douyinvod.com/271c52db4e1466cd6940df3871458564/68a1fc97/video/tos/cn/tos-cn-ve-0015c800/oAgMfAfRj0gmQIIbXfLeCEAKHKkogyQS2GGcDv/?a=6383&amp;ch=10010&amp;cr=3&amp;dr=0&amp;lr=all&amp;cd=0%7C0%7C0%7C3&amp;cv=1&amp;br=329&amp;bt=329&amp;cs=0&amp;ds=4&amp;ft=4TMWc6DhppftTzL8Es~.C_fauVq0InJRntGc6Ba5_11NRhsHDDJtmqdN0izqXusZ.&amp;mime_type=video_mp4&amp;qs=0&amp;rc=ZDU7ZDo5NzQ4OGY6OjM6ZUBpajZqZHE5cjhrdTMzNGkzM0BgYF9gX2NjXzAxY2MuNTEyYSNwcy0vMmRzbHNgLS1kLWFzcw%3D%3D&amp;btag=c0000e00028000&amp;cquery=101r_100N_100x_100z_100o&amp;dy_q=1755435541&amp;feature_id=46a7bb47b4fd1280f3d3825bf2b29388&amp;l=202508172059015B2632BC4E72636A2698</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>https://www.iesdouyin.com/share/video/7539015029640514876/?region=CN&amp;mid=7539015042369391398&amp;u_code=1gc4icjicghg&amp;did=MS4wLjABAAAAKx1hV3QZSLMrp1cHtvpEiPR5vaBZXyDV_RoOJeM83hCgv_kp_X7UJjKG2o8t6GY5&amp;iid=MS4wLjABAAAANwkJuWIRFOzg5uCpDRpMj4OX-QryoDgn-yYlXQnRwQQ&amp;with_sec_did=1&amp;video_share_track_ver=&amp;titleType=title&amp;share_sign=01AYTsnc2M6GZ2WSh3ZOyjn9UIJM5wUsTqjHWfVOBfM-&amp;share_version=290100&amp;ts=1755349105&amp;from_aid=6383&amp;from_ssr=1</t>
+          <t>https://www.iesdouyin.com/share/video/7421681469690531084/?region=CN&amp;mid=7413306911125015306&amp;u_code=1gc4icjicghg&amp;did=MS4wLjABAAAAKx1hV3QZSLMrp1cHtvpEiPR5vaBZXyDV_RoOJeM83hCgv_kp_X7UJjKG2o8t6GY5&amp;iid=MS4wLjABAAAANwkJuWIRFOzg5uCpDRpMj4OX-QryoDgn-yYlXQnRwQQ&amp;with_sec_did=1&amp;video_share_track_ver=&amp;titleType=&amp;share_sign=M8oBJrNFXQg1s8Z7BZYeJKdUGKFPkVeEdgYDlkttHKo-&amp;share_version=290100&amp;ts=1755435541&amp;from_aid=6383&amp;from_ssr=1</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c000-ce/o4RPE559QAfOErzBI7AfyJAdA7Fju8f81gVDYE~tplv-dy-cropcenter:323:430.jpeg?lk3s=138a59ce&amp;x-expires=2070705600&amp;x-signature=y2d280wcZMJ%2BJkdArF%2BrnFLaG7s%3D&amp;from=327834062&amp;s=PackSourceEnum_PUBLISH&amp;se=true&amp;sh=323_430&amp;sc=cover&amp;biz_tag=pcweb_cover&amp;l=20250816205824E14EF62C31674E418F2A</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o0k24fQfhqlFnf0BDAgvH7AQM8AkWCDPeESbjg~tplv-dy-cropcenter:323:430.jpeg?lk3s=138a59ce&amp;x-expires=2070792000&amp;x-signature=9CmcfFoBkscTAYh%2BHK%2F1UaPkYXA%3D&amp;from=327834062&amp;s=PackSourceEnum_PUBLISH&amp;se=true&amp;sh=323_430&amp;sc=cover&amp;biz_tag=pcweb_cover&amp;l=202508172059015B2632BC4E72636A2698</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2025-08-16 11:08:44</t>
+          <t>2024-10-04 06:35:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>低位戒怕 高位戒贪 有网友十几年前买了我的书垫桌脚，现在拿出来拍断大腿。#李大霄 #为老百姓发声#做好人买好股得好报 #作品同步头条赢激励#大有学问</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>李大霄</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>51</v>
+      </c>
+      <c r="D120" t="n">
+        <v>336</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>https://v3-web.douyinvod.com/a4e11b9684254f76e78cb8baf3b6e900/68a1fd87/video/tos/cn/tos-cn-ve-15c000-ce/ochPJYCA9EMA1e8f7CIQAMDo15eFEE1cCwFYxo/?a=6383&amp;ch=10010&amp;cr=3&amp;dr=0&amp;lr=all&amp;cd=0%7C0%7C0%7C3&amp;cv=1&amp;br=630&amp;bt=630&amp;cs=0&amp;ds=3&amp;ft=4TMWc6DhppftTzL8Es~.C_fauVq0InJRntGc6Ba5_11NRhsHDDJtmqdN0izqXusZ.&amp;mime_type=video_mp4&amp;qs=0&amp;rc=NTY6NmRlNTxoZjM2ZmdmZEBpMzdyM3c5cmd2NTMzbGkzNEBiX2BeXjMtXzQxYC5iLTMyYSNzYy1nMmRjYGRhLS1kLWJzcw%3D%3D&amp;btag=c0000e00030000&amp;cquery=100B_100x_100z_100o_101r&amp;dy_q=1755435541&amp;feature_id=fea919893f650a8c49286568590446ef&amp;l=202508172059015B2632BC4E72636A2698</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>https://www.iesdouyin.com/share/video/7539526041413651772/?region=CN&amp;mid=7539525985163692863&amp;u_code=1gc4icjicghg&amp;did=MS4wLjABAAAAKx1hV3QZSLMrp1cHtvpEiPR5vaBZXyDV_RoOJeM83hCgv_kp_X7UJjKG2o8t6GY5&amp;iid=MS4wLjABAAAANwkJuWIRFOzg5uCpDRpMj4OX-QryoDgn-yYlXQnRwQQ&amp;with_sec_did=1&amp;video_share_track_ver=&amp;titleType=title&amp;share_sign=pOEIXi0WhfQ0n00T.xp9VlGqOaeOpesOxWqSm2aiqAU-&amp;share_version=290100&amp;ts=1755435541&amp;from_aid=6383&amp;from_ssr=1</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c000-ce/oYx73eAZEIXf3DAJ4xRBhGvEQIkn8OAegAlLC7~tplv-dy-cropcenter:323:430.jpeg?lk3s=138a59ce&amp;x-expires=2070792000&amp;x-signature=XL0Uj7GA50ajJNzOn03NNOAwRXs%3D&amp;from=327834062&amp;s=PackSourceEnum_PUBLISH&amp;se=true&amp;sh=323_430&amp;sc=cover&amp;biz_tag=pcweb_cover&amp;l=202508172059015B2632BC4E72636A2698</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>2025-08-17 20:11:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>存款搬家选好位置 全球央行年会将在下周举行，居民存款“搬家”应避免搬到差股票。#李大霄 #为老百姓发声#做好人买好股得好报 #作品同步头条赢激励#大有学问</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>李大霄</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>281</v>
+      </c>
+      <c r="D121" t="n">
+        <v>2208</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>https://v3-web.douyinvod.com/dee7059c476488582010a43a45394e1e/68a1fd64/video/tos/cn/tos-cn-ve-15/oAIivKPBahVauA7IAaoEG5wr9dgJQVqiAkmiQ/?a=6383&amp;ch=10010&amp;cr=3&amp;dr=0&amp;lr=all&amp;cd=0%7C0%7C0%7C3&amp;cv=1&amp;br=923&amp;bt=923&amp;cs=0&amp;ds=6&amp;ft=4TMWc6DhppftTzL8Es~.C_fauVq0InJRntGc6Ba5_11NRhsHDDJtmqdN0izqXusZ.&amp;mime_type=video_mp4&amp;qs=0&amp;rc=OWg5Nzg7OGUzZDk8NzM2NkBpM2hwaHU5cjxzNTMzNGkzM0A2NS40YTEuNi4xYGBjLmFjYSNlNl9pMmRrXmRhLS1kLTBzcw%3D%3D&amp;btag=c0000e00030000&amp;cquery=100B_100x_100z_100o_101r&amp;dy_q=1755435541&amp;feature_id=f0150a16a324336cda5d6dd0b69ed299&amp;l=202508172059015B2632BC4E72636A2698</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>https://www.iesdouyin.com/share/video/7539473682830707995/?region=CN&amp;mid=6620583416695884548&amp;u_code=1gc4icjicghg&amp;did=MS4wLjABAAAAKx1hV3QZSLMrp1cHtvpEiPR5vaBZXyDV_RoOJeM83hCgv_kp_X7UJjKG2o8t6GY5&amp;iid=MS4wLjABAAAANwkJuWIRFOzg5uCpDRpMj4OX-QryoDgn-yYlXQnRwQQ&amp;with_sec_did=1&amp;video_share_track_ver=&amp;titleType=title&amp;share_sign=ayqgaLKCo8Nnycf4KQjf1IGSXTZFPUA1cIUmSRefZKQ-&amp;share_version=290100&amp;ts=1755435541&amp;from_aid=6383&amp;from_ssr=1</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/oUeJDefACAIIAEAf2bGFMiQrhIA1aL2AlLgDFy~tplv-dy-cropcenter:323:430.jpeg?lk3s=138a59ce&amp;x-expires=2070792000&amp;x-signature=7bv8RblTa8ihSn6sKe3xrcZrpKA%3D&amp;from=327834062&amp;s=PackSourceEnum_PUBLISH&amp;se=true&amp;sh=323_430&amp;sc=cover&amp;biz_tag=pcweb_cover&amp;l=202508172059015B2632BC4E72636A2698</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>2025-08-17 16:48:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>牛儿慢些走 好东西不下轿，差东西不要碰。#李大霄 #为老百姓发声#做好人买好股得好报 #作品同步头条赢激励#大有学问</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>李大霄</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>268</v>
+      </c>
+      <c r="D122" t="n">
+        <v>2179</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>https://v3-web.douyinvod.com/2a340a270ad882fa80ac2117846133d2/68a1fdd5/video/tos/cn/tos-cn-ve-15c000-ce/o8MhmKwUfAIMUVOAQBe0s8C7ciEeiANGOLhE73/?a=6383&amp;ch=10010&amp;cr=3&amp;dr=0&amp;lr=all&amp;cd=0%7C0%7C0%7C3&amp;cv=1&amp;br=679&amp;bt=679&amp;cs=0&amp;ds=4&amp;ft=4TMWc6DhppftTzL8Es~.C_fauVq0InJRntGc6Ba5_11NRhsHDDJtmqdN0izqXusZ.&amp;mime_type=video_mp4&amp;qs=0&amp;rc=N2llZWc3ZmhlM2g8OjM5aUBpamRqZXE5cm1wNTMzbGkzNEBiNl4tLzJiX2MxLzQxNS9iYSNxYC40MmRjaWRhLS1kLWJzcw%3D%3D&amp;btag=c0000e00030000&amp;cquery=100z_100o_101r_100B_100x&amp;dy_q=1755435541&amp;feature_id=46a7bb47b4fd1280f3d3825bf2b29388&amp;l=202508172059015B2632BC4E72636A2698</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>https://www.iesdouyin.com/share/video/7539429146175900985/?region=CN&amp;mid=6620583416695884548&amp;u_code=1gc4icjicghg&amp;did=MS4wLjABAAAAKx1hV3QZSLMrp1cHtvpEiPR5vaBZXyDV_RoOJeM83hCgv_kp_X7UJjKG2o8t6GY5&amp;iid=MS4wLjABAAAANwkJuWIRFOzg5uCpDRpMj4OX-QryoDgn-yYlXQnRwQQ&amp;with_sec_did=1&amp;video_share_track_ver=&amp;titleType=title&amp;share_sign=9TakDVeeELFrnMrs08CR7sJcHsFx_QuPw7gr9fLYXxw-&amp;share_version=290100&amp;ts=1755435541&amp;from_aid=6383&amp;from_ssr=1</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c000-ce/owSd2AeB0Eb7TLJiiAALyAEwAELhfU9wbeItCv~tplv-dy-cropcenter:323:430.jpeg?lk3s=138a59ce&amp;x-expires=2070792000&amp;x-signature=N0cFcz%2FagB4433kb1SBZxFAEko4%3D&amp;from=327834062&amp;s=PackSourceEnum_PUBLISH&amp;se=true&amp;sh=323_430&amp;sc=cover&amp;biz_tag=pcweb_cover&amp;l=202508172059015B2632BC4E72636A2698</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>2025-08-17 13:55:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>沪指盘中创10年新高 ，A股总市值突破100万亿#股票 #牛市 #股民</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>超级辉</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>1473</v>
+      </c>
+      <c r="D123" t="n">
+        <v>16694</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>https://v3-web.douyinvod.com/da78c159355e567d41c84bd83f850513/68a34368/video/tos/cn/tos-cn-ve-15c000-ce/oUzBBMbg8HWbJsL8BgyMe8ReEK7yRAifQRICBc/?a=6383&amp;ch=10010&amp;cr=3&amp;dr=0&amp;lr=all&amp;cd=0%7C0%7C0%7C3&amp;cv=1&amp;br=849&amp;bt=849&amp;cs=0&amp;ds=6&amp;ft=4TMWc6DhppftTzL8Es~.C_fauVq0InLqatGc6B1-_11NRhsHDDEewGPQ71m27usZ.&amp;mime_type=video_mp4&amp;qs=0&amp;rc=PGVkOTVkZDg3ZjQ2MzloOkBpamY7NnA5cnNnNTMzbGkzNEAxYS9fNDRgNjMxNC8zLS5jYSNzbXA1MmRjamVhLS1kLWJzcw%3D%3D&amp;btag=c0000e00028000&amp;cquery=100x_100z_100o_101r_100B&amp;dy_q=1755519117&amp;feature_id=f0150a16a324336cda5d6dd0b69ed299&amp;l=202508182011566272A19437B02B8FC67C</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>https://www.iesdouyin.com/share/video/7539830417373859132/?region=CN&amp;mid=7539830361308678951&amp;u_code=1gc4icjicghg&amp;did=MS4wLjABAAAAKx1hV3QZSLMrp1cHtvpEiPR5vaBZXyDV_RoOJeM83hCgv_kp_X7UJjKG2o8t6GY5&amp;iid=MS4wLjABAAAANwkJuWIRFOzg5uCpDRpMj4OX-QryoDgn-yYlXQnRwQQ&amp;with_sec_did=1&amp;video_share_track_ver=&amp;titleType=title&amp;share_sign=oFazLh7OODdtrfrIHXJex0.LjP6Eb7q8CSa8zs1jUZM-&amp;share_version=290100&amp;ts=1755519117&amp;from_aid=6383&amp;from_ssr=1&amp;share_track_info=%7B%22link_description_type%22%3A%22%22%7D</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015c000-ce/osZyIf87ZBLbAGGZJWgLZR9aEe2ERLICfBbZiA~tplv-dy-cropcenter:323:430.jpeg?lk3s=138a59ce&amp;x-expires=2070878400&amp;x-signature=50g6ofdUk17ArH4T17r15aFkVHU%3D&amp;from=327834062&amp;s=PackSourceEnum_PUBLISH&amp;se=true&amp;sh=323_430&amp;sc=cover&amp;biz_tag=pcweb_cover&amp;l=202508182011566272A19437B02B8FC67C</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>2025-08-18 15:52:51</t>
         </is>
       </c>
     </row>
